--- a/Data/EC/NIT-9002177843.xlsx
+++ b/Data/EC/NIT-9002177843.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81032C2C-EFBB-4083-A2DE-859BDB7911EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18942B9-0AB4-4275-8725-F2BF4EAE15F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9FA1E64-05D9-4401-BBBD-6317BAA6E539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A075C459-0925-4C91-82F2-AD49CCB32873}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,37 +65,55 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1052963652</t>
+  </si>
+  <si>
+    <t>JULIO ENRIQUE ACUÑA JIMENEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>1045739661</t>
   </si>
   <si>
     <t>IBETH MARIA ANGULO CAMARGO</t>
   </si>
   <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>2105</t>
   </si>
   <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
     <t>1099992508</t>
   </si>
   <si>
     <t>DEIVIS DELCRISTO PEREZ ORTEGA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F5C6E4-BFF8-42BE-2CE6-BEEC8363F87A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D96DE2-79EC-7233-8B88-061888F2D31E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,8 +878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511BC8EC-D49B-43C7-92D3-F5B981DB8970}">
-  <dimension ref="B2:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FF56CC-207F-455B-8205-E70CA3902908}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -885,7 +903,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -930,7 +948,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -962,12 +980,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>302590</v>
+        <v>749531</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,17 +996,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1015,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1038,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>23016</v>
+        <v>63306</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1061,10 +1079,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>63306</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,10 +1102,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>63306</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,10 +1125,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>63306</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,10 +1148,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>63306</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>877803</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1144,75 +1162,236 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F21" s="18">
-        <v>67105</v>
+        <v>63306</v>
       </c>
       <c r="G21" s="18">
-        <v>1677618</v>
+        <v>877803</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="18">
+        <v>23016</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="18">
         <v>67105</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G27" s="18">
         <v>1677618</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="H27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="18">
+        <v>67105</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1677618</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="24">
+        <v>67105</v>
+      </c>
+      <c r="G29" s="24">
+        <v>1677618</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002177843.xlsx
+++ b/Data/EC/NIT-9002177843.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18942B9-0AB4-4275-8725-F2BF4EAE15F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5A2C2B-BC38-44CE-B110-831F7206C277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A075C459-0925-4C91-82F2-AD49CCB32873}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA5B241C-8154-4ACF-BC81-E506CA3194F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,55 +65,43 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1052963652</t>
-  </si>
-  <si>
-    <t>JULIO ENRIQUE ACUÑA JIMENEZ</t>
+    <t>1045739661</t>
+  </si>
+  <si>
+    <t>IBETH MARIA ANGULO CAMARGO</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>1099992508</t>
+  </si>
+  <si>
+    <t>DEIVIS DELCRISTO PEREZ ORTEGA</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1045739661</t>
-  </si>
-  <si>
-    <t>IBETH MARIA ANGULO CAMARGO</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>1099992508</t>
-  </si>
-  <si>
-    <t>DEIVIS DELCRISTO PEREZ ORTEGA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -212,22 +200,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +415,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +459,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D96DE2-79EC-7233-8B88-061888F2D31E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16352E0D-94C8-64F4-5136-80B742AFF41D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,8 +866,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FF56CC-207F-455B-8205-E70CA3902908}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9ACE0A-5724-421A-A219-CF392989DA8F}">
+  <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -903,7 +891,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -948,7 +936,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -980,12 +968,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>749531</v>
+        <v>436800</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -996,17 +984,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1033,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1056,10 +1044,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>63306</v>
+        <v>23016</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1079,10 +1067,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>63306</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1102,10 +1090,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>63306</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1125,10 +1113,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>63306</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1148,10 +1136,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>63306</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>877803</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1162,19 +1150,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>63306</v>
+        <v>67105</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>1677618</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1185,19 +1173,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>67105</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1677618</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1208,190 +1196,75 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>67105</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>1677618</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="18">
-        <v>23016</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="F24" s="24">
         <v>67105</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G24" s="24">
         <v>1677618</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="18">
-        <v>67105</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1677618</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="24">
-        <v>67105</v>
-      </c>
-      <c r="G29" s="24">
-        <v>1677618</v>
-      </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="B29" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="H29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="H30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002177843.xlsx
+++ b/Data/EC/NIT-9002177843.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E5A2C2B-BC38-44CE-B110-831F7206C277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F30E5B-9EDC-464B-B44E-D554DD065F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA5B241C-8154-4ACF-BC81-E506CA3194F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78265373-EFC2-48DA-B60B-CCC459FC57F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -200,9 +203,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -215,7 +216,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,29 +412,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,19 +453,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16352E0D-94C8-64F4-5136-80B742AFF41D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5313BE-6C20-A9C1-B1AA-D19D1BB7E1AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,8 +875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9ACE0A-5724-421A-A219-CF392989DA8F}">
-  <dimension ref="B2:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F3D8B0-544D-4ABA-A594-D8490465D385}">
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -889,57 +898,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -955,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9002177843</v>
       </c>
@@ -968,12 +977,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>436800</v>
+        <v>503905</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -984,17 +993,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1021,13 +1030,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1040,18 +1049,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>23016</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1000000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1063,18 +1072,18 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>36341</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1000000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1086,18 +1095,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>36341</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1109,18 +1118,18 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>36341</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1132,18 +1141,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>36341</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1155,18 +1164,18 @@
       <c r="D21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>67105</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1677618</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1178,18 +1187,18 @@
       <c r="D22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>67105</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1677618</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1201,70 +1210,93 @@
       <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>67105</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1677618</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="19">
         <v>67105</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="19">
         <v>1677618</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="26">
+        <v>67105</v>
+      </c>
+      <c r="G25" s="26">
+        <v>1677618</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="32"/>
+      <c r="B30" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="34"/>
       <c r="H30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="34"/>
+      <c r="H31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H29:J29"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
